--- a/Documentation/Opcodes.xlsx
+++ b/Documentation/Opcodes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tokyo\INTEL 8085\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297C4A6-3E9F-4A58-A0B7-3CB4E90870B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC20D9D-B65B-42F5-B556-B13AE661E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A089EF56-17D1-4DA1-8395-37AC3BC124B3}"/>
   </bookViews>
@@ -1253,10 +1253,10 @@
     <t>E3</t>
   </si>
   <si>
-    <t>CMPA</t>
-  </si>
-  <si>
     <t>CPI Data</t>
+  </si>
+  <si>
+    <t>CMP A</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E488937-ADAA-47E8-835A-B3D15D810C03}">
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>62</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>84</v>
